--- a/riskmanagement_project/STOCK_RESULTS/AAPL_basic_financials.xlsx
+++ b/riskmanagement_project/STOCK_RESULTS/AAPL_basic_financials.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -57,7 +60,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -434,30 +437,20 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>2024-09-30</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>2023-09-30</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>2022-09-30</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>2021-09-30</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>2020-09-30</t>
-        </is>
+      <c r="A1" s="1" t="n">
+        <v>45565</v>
+      </c>
+      <c r="B1" s="1" t="n">
+        <v>45199</v>
+      </c>
+      <c r="C1" s="1" t="n">
+        <v>44834</v>
+      </c>
+      <c r="D1" s="1" t="n">
+        <v>44469</v>
+      </c>
+      <c r="E1" s="1" t="n">
+        <v>44104</v>
       </c>
     </row>
     <row r="2">
